--- a/Clean-1000.xlsx
+++ b/Clean-1000.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t># LPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UR deg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,387 +379,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t># LPF</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UR</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> UR deg</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>6.594416926154692e-10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>8.953244311216115E-08</v>
+      </c>
+      <c r="D2">
+        <v>5.129831119821971E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.009999999776482582</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.366077023120252e-10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>7.408261052789473E-08</v>
+      </c>
+      <c r="D3">
+        <v>4.244620918559808E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.01999999955296516</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.18775932869628e-10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>5.917847476469187E-08</v>
+      </c>
+      <c r="D4">
+        <v>3.390676842038292E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0.0350000001490116</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.535108075526815e-10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>3.7869554487971E-08</v>
+      </c>
+      <c r="D5">
+        <v>2.169765644201444E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0.05750000104308128</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.744099242743526e-11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>8.298145138586378E-09</v>
+      </c>
+      <c r="D6">
+        <v>4.754486942280011E-07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.09125000238418579</v>
       </c>
-      <c r="C7" t="n">
-        <v>-2.598225322670005e-10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>-3.046739545896349E-08</v>
+      </c>
+      <c r="D7">
+        <v>-1.745653172554658E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.1412499994039536</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.736321750043167e-10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8">
+        <v>-7.495928814455193E-08</v>
+      </c>
+      <c r="D8">
+        <v>-4.294850845987853E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.1912499964237213</v>
       </c>
-      <c r="C9" t="n">
-        <v>-7.473796336719902e-10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>-1.029929647069117E-07</v>
+      </c>
+      <c r="D9">
+        <v>-5.901062197245881E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.2412499934434891</v>
       </c>
-      <c r="C10" t="n">
-        <v>-7.828838976701785e-10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10">
+        <v>-1.131568893688369E-07</v>
+      </c>
+      <c r="D10">
+        <v>-6.48341218366313E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.2912499904632568</v>
       </c>
-      <c r="C11" t="n">
-        <v>-6.837829458059734e-10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>-1.040249744378935E-07</v>
+      </c>
+      <c r="D11">
+        <v>-5.960191999247572E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.3412500023841857</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.318843521878982e-10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>-7.361087998121376E-08</v>
+      </c>
+      <c r="D12">
+        <v>-4.217592749167589E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.3912500143051147</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.901852148741625e-11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13">
+        <v>-1.985551349834198E-08</v>
+      </c>
+      <c r="D13">
+        <v>-1.137637123520032E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.4412499964237213</v>
       </c>
-      <c r="C14" t="n">
-        <v>4.793613977440402e-10</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>6.083544106384557E-08</v>
+      </c>
+      <c r="D14">
+        <v>3.48561401777521E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.4912500083446503</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.153265533011859e-09</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15">
+        <v>1.892712364990213E-07</v>
+      </c>
+      <c r="D15">
+        <v>1.084444303461638E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.5412499904632568</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.965407799155812e-09</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="C16">
+        <v>3.621049182870109E-07</v>
+      </c>
+      <c r="D16">
+        <v>2.074708355877527E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.5912500023841858</v>
       </c>
-      <c r="C17" t="n">
-        <v>2.923074281376784e-09</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="C17">
+        <v>6.049837992245415E-06</v>
+      </c>
+      <c r="D17">
+        <v>0.0003466301836935619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.6412500143051147</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.026259915881425e-09</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18">
+        <v>0.6037499904632568</v>
+      </c>
+      <c r="C18">
+        <v>1.770138203701917E-05</v>
+      </c>
+      <c r="D18">
+        <v>0.001014214482269886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.6912500262260437</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.289516617870997e-09</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19">
+        <v>0.6162499785423279</v>
+      </c>
+      <c r="C19">
+        <v>3.161685484536132E-05</v>
+      </c>
+      <c r="D19">
+        <v>0.001811512344116951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.741249978542328</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6.669178514236325e-09</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B20">
+        <v>0.6349999904632568</v>
+      </c>
+      <c r="C20">
+        <v>5.527840019753589E-05</v>
+      </c>
+      <c r="D20">
+        <v>0.003167219029553942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.7912499904632568</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.223473520820338e-09</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="B21">
+        <v>0.6631249785423279</v>
+      </c>
+      <c r="C21">
+        <v>9.651836093611354E-05</v>
+      </c>
+      <c r="D21">
+        <v>0.00553009472715966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>0.8412500023841859</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9.937839594916387e-09</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>0.0001709295763180139</v>
+      </c>
+      <c r="D22">
+        <v>0.009793543316981504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>0.8912500143051147</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.178317290598642e-08</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>0.0002783897956241939</v>
+      </c>
+      <c r="D23">
+        <v>0.01595056034877586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>0.9412500262260435</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.380312919985107e-08</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>0.0004069369042494948</v>
+      </c>
+      <c r="D24">
+        <v>0.02331576714161535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.991249978542328</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.593949068814569e-08</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.046509544314478e-06</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>0.0005570433155698922</v>
+      </c>
+      <c r="D25">
+        <v>0.03191623098812888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>1.041249990463257</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.826503720183314e-08</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.046509544314478e-06</v>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>0.0007283889747478345</v>
+      </c>
+      <c r="D26">
+        <v>0.04173361409691202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>0.0007744562930868302</v>
+      </c>
+      <c r="D27">
+        <v>0.04437307701122208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>0.0008459115376205969</v>
+      </c>
+      <c r="D28">
+        <v>0.04846716094708216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>0.0009583330939314915</v>
+      </c>
+      <c r="D29">
+        <v>0.05490844164998875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>0.001011414878297463</v>
+      </c>
+      <c r="D30">
+        <v>0.05794980386318243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>0.00109465686355328</v>
+      </c>
+      <c r="D31">
+        <v>0.06271921829663099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>0.00122755166917689</v>
+      </c>
+      <c r="D32">
+        <v>0.07033352977807526</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Clean-1000.xlsx
+++ b/Clean-1000.xlsx
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.953244311216115E-08</v>
+        <v>8.954892045423924E-08</v>
       </c>
       <c r="D2">
-        <v>5.129831119821971E-06</v>
+        <v>5.130775201980639E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>7.408261052789473E-08</v>
+        <v>7.409617617067159E-08</v>
       </c>
       <c r="D3">
-        <v>4.244620918559808E-06</v>
+        <v>4.245398172637304E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>5.917847476469187E-08</v>
+        <v>5.91891287081718E-08</v>
       </c>
       <c r="D4">
-        <v>3.390676842038292E-06</v>
+        <v>3.391287268034863E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>3.7869554487971E-08</v>
+        <v>3.787493150017454E-08</v>
       </c>
       <c r="D5">
-        <v>2.169765644201444E-06</v>
+        <v>2.170073724307097E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>8.298145138586378E-09</v>
+        <v>8.297425743312775E-09</v>
       </c>
       <c r="D6">
-        <v>4.754486942280011E-07</v>
+        <v>4.754074759150219E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-3.046739545896349E-08</v>
+        <v>-3.046998350787929E-08</v>
       </c>
       <c r="D7">
-        <v>-1.745653172554658E-06</v>
+        <v>-1.745801456834706E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-7.495928814455193E-08</v>
+        <v>-7.495278805258335E-08</v>
       </c>
       <c r="D8">
-        <v>-4.294850845987853E-06</v>
+        <v>-4.294478418151607E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-1.029929647069117E-07</v>
+        <v>-1.030064803045154E-07</v>
       </c>
       <c r="D9">
-        <v>-5.901062197245881E-06</v>
+        <v>-5.901836583946174E-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-1.131568893688369E-07</v>
+        <v>-1.131904206558504E-07</v>
       </c>
       <c r="D10">
-        <v>-6.48341218366313E-06</v>
+        <v>-6.485333384890645E-06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-1.040249744378935E-07</v>
+        <v>-1.040203137535117E-07</v>
       </c>
       <c r="D11">
-        <v>-5.960191999247572E-06</v>
+        <v>-5.959924961702851E-06</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-7.361087998121376E-08</v>
+        <v>-7.368444084922265E-08</v>
       </c>
       <c r="D12">
-        <v>-4.217592749167589E-06</v>
+        <v>-4.221807476441818E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-1.985551349834198E-08</v>
+        <v>-1.989088059637257E-08</v>
       </c>
       <c r="D13">
-        <v>-1.137637123520032E-06</v>
+        <v>-1.13966350897081E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>6.083544106384557E-08</v>
+        <v>6.089647179964922E-08</v>
       </c>
       <c r="D14">
-        <v>3.48561401777521E-06</v>
+        <v>3.489110821357337E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>1.892712364990213E-07</v>
+        <v>1.893122533436729E-07</v>
       </c>
       <c r="D15">
-        <v>1.084444303461638E-05</v>
+        <v>1.084679312670387E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>3.621049182870109E-07</v>
+        <v>3.62125917644212E-07</v>
       </c>
       <c r="D16">
-        <v>2.074708355877527E-05</v>
+        <v>2.074828673331538E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>6.049837992245415E-06</v>
+        <v>6.07288921143298E-06</v>
       </c>
       <c r="D17">
-        <v>0.0003466301836935619</v>
+        <v>0.0003479509212656404</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.770138203701917E-05</v>
+        <v>1.773083109363584E-05</v>
       </c>
       <c r="D18">
-        <v>0.001014214482269886</v>
+        <v>0.001015901788924663</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>3.161685484536132E-05</v>
+        <v>3.165107192490174E-05</v>
       </c>
       <c r="D19">
-        <v>0.001811512344116951</v>
+        <v>0.00181347283836188</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>5.527840019753589E-05</v>
+        <v>5.531930365377147E-05</v>
       </c>
       <c r="D20">
-        <v>0.003167219029553942</v>
+        <v>0.00316956262496374</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,10 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>9.651836093611354E-05</v>
+        <v>9.656929395379502E-05</v>
       </c>
       <c r="D21">
-        <v>0.00553009472715966</v>
+        <v>0.005533012974110674</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -685,10 +685,10 @@
         <v>0.7053124904632568</v>
       </c>
       <c r="C22">
-        <v>0.0001709295763180139</v>
+        <v>0.0001709966596270182</v>
       </c>
       <c r="D22">
-        <v>0.009793543316981504</v>
+        <v>0.009797386907463223</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -699,10 +699,10 @@
         <v>0.7553125023841859</v>
       </c>
       <c r="C23">
-        <v>0.0002783897956241939</v>
+        <v>0.0002784778136772355</v>
       </c>
       <c r="D23">
-        <v>0.01595056034877586</v>
+        <v>0.0159556034117361</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -713,10 +713,10 @@
         <v>0.8053125143051147</v>
       </c>
       <c r="C24">
-        <v>0.0004069369042494948</v>
+        <v>0.0004070483017683329</v>
       </c>
       <c r="D24">
-        <v>0.02331576714161535</v>
+        <v>0.023322149749293</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -727,10 +727,10 @@
         <v>0.8553125262260437</v>
       </c>
       <c r="C25">
-        <v>0.0005570433155698922</v>
+        <v>0.0005571803044456401</v>
       </c>
       <c r="D25">
-        <v>0.03191623098812888</v>
+        <v>0.03192407987254948</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -741,10 +741,10 @@
         <v>0.905312478542328</v>
       </c>
       <c r="C26">
-        <v>0.0007283889747478345</v>
+        <v>0.0007285530683724846</v>
       </c>
       <c r="D26">
-        <v>0.04173361409691202</v>
+        <v>0.04174301596904947</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -755,10 +755,10 @@
         <v>0.9178125262260435</v>
       </c>
       <c r="C27">
-        <v>0.0007744562930868302</v>
+        <v>0.0007746273666327113</v>
       </c>
       <c r="D27">
-        <v>0.04437307701122208</v>
+        <v>0.04438287880338741</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -769,10 +769,10 @@
         <v>0.936562478542328</v>
       </c>
       <c r="C28">
-        <v>0.0008459115376205969</v>
+        <v>0.0008460932556569223</v>
       </c>
       <c r="D28">
-        <v>0.04846716094708216</v>
+        <v>0.04847757262362502</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -783,10 +783,10 @@
         <v>0.9646875262260435</v>
       </c>
       <c r="C29">
-        <v>0.0009583330939314915</v>
+        <v>0.0009585311279638343</v>
       </c>
       <c r="D29">
-        <v>0.05490844164998875</v>
+        <v>0.05491978816424194</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -797,10 +797,10 @@
         <v>0.9752343893051149</v>
       </c>
       <c r="C30">
-        <v>0.001011414878297463</v>
+        <v>0.00101162151920222</v>
       </c>
       <c r="D30">
-        <v>0.05794980386318243</v>
+        <v>0.05796164351489978</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -811,10 +811,10 @@
         <v>0.9910547137260435</v>
       </c>
       <c r="C31">
-        <v>0.00109465686355328</v>
+        <v>0.001094876822223882</v>
       </c>
       <c r="D31">
-        <v>0.06271921829663099</v>
+        <v>0.06273182100012376</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -825,10 +825,10 @@
         <v>1.014785170555115</v>
       </c>
       <c r="C32">
-        <v>0.00122755166917689</v>
+        <v>0.001227792070153948</v>
       </c>
       <c r="D32">
-        <v>0.07033352977807526</v>
+        <v>0.07034730373945153</v>
       </c>
     </row>
   </sheetData>
